--- a/Hardware/Electronics/Data Acquisition Board/DAQ Board/Block 2 BoM.xlsx
+++ b/Hardware/Electronics/Data Acquisition Board/DAQ Board/Block 2 BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\trunk\Hardware\Electronics\Data Acquisition Board\DAQ Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D629C17C-09B3-423D-99BE-47EF6921E313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6699838-4C10-457B-BAEA-CA4660194486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A5494B0-4A4B-4243-8841-0E347359009B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="340">
   <si>
     <t xml:space="preserve">    ADC1</t>
   </si>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>768-1007-1-ND</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1098,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1275,12 +1278,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1299,6 +1317,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1617,11 +1639,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J146"/>
+  <dimension ref="B1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,6 +5963,15 @@
       </c>
       <c r="J146" s="1" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E147" s="19">
+        <f>SUM(E2:E146)</f>
+        <v>217.09000000000003</v>
       </c>
     </row>
   </sheetData>
